--- a/analysis/5.3/td_0.11s.xlsx
+++ b/analysis/5.3/td_0.11s.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -57,14 +57,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,16 +88,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/analysis/5.3/td_0.11s.xlsx
+++ b/analysis/5.3/td_0.11s.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/realgjl/Desktop/GitHub/sfcNordic/analysis/5.3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E5051F-D61F-CB42-99BC-64F9B0B826B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="5260" yWindow="460" windowWidth="33600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -32,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -47,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,58 +62,368 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D94"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="true"/>
-    <col min="2" max="2" width="3.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.5703125" customWidth="true"/>
-    <col min="4" max="4" width="13.5703125" customWidth="true"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20.100000000000001</v>
       </c>
       <c r="B2">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <v>0.11</v>
@@ -115,12 +432,12 @@
         <v>181.89445333333353</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20.100000000000001</v>
       </c>
       <c r="B3">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
         <v>0.11</v>
@@ -129,7 +446,7 @@
         <v>191.11568000000199</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20.100000000000001</v>
       </c>
@@ -143,12 +460,12 @@
         <v>190.49568000000198</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20.100000000000001</v>
       </c>
       <c r="B5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
         <v>0.11</v>
@@ -157,12 +474,12 @@
         <v>189.71568000000198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20.100000000000001</v>
       </c>
       <c r="B6">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C6">
         <v>0.11</v>
@@ -171,12 +488,12 @@
         <v>188.535680000002</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20.100000000000001</v>
       </c>
       <c r="B7">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C7">
         <v>0.11</v>
@@ -185,12 +502,12 @@
         <v>190.23568000000199</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B8">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0.11</v>
@@ -199,12 +516,12 @@
         <v>186.475680000002</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B9">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
         <v>0.11</v>
@@ -213,9 +530,9 @@
         <v>188.6538400000012</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B10">
         <v>1.1000000000000001</v>
@@ -227,12 +544,12 @@
         <v>188.8238400000001</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B11">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C11">
         <v>0.11</v>
@@ -241,12 +558,12 @@
         <v>188.47384000000122</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B12">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C12">
         <v>0.11</v>
@@ -255,12 +572,12 @@
         <v>188.101840000001</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B13">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C13">
         <v>0.11</v>
@@ -269,12 +586,12 @@
         <v>187.8338400000012</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B14">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C14">
         <v>0.11</v>
@@ -283,12 +600,12 @@
         <v>187.71989333333369</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B15">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C15">
         <v>0.11</v>
@@ -297,9 +614,9 @@
         <v>187.33568000000199</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30.100000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="B16">
         <v>4.0999999999999996</v>
@@ -311,12 +628,12 @@
         <v>186.23384000000121</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B17">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
         <v>0.11</v>
@@ -325,12 +642,12 @@
         <v>184.855680000002</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B18">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
         <v>0.11</v>
@@ -339,9 +656,9 @@
         <v>186.8638400000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B19">
         <v>1.1000000000000001</v>
@@ -353,12 +670,12 @@
         <v>187.29568000000199</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B20">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C20">
         <v>0.11</v>
@@ -367,12 +684,12 @@
         <v>187.30384000000009</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B21">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C21">
         <v>0.11</v>
@@ -381,12 +698,12 @@
         <v>186.87384000000122</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B22">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C22">
         <v>0.11</v>
@@ -395,12 +712,12 @@
         <v>186.75322666666753</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B23">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C23">
         <v>0.11</v>
@@ -409,12 +726,12 @@
         <v>186.66384000000008</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B24">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C24">
         <v>0.11</v>
@@ -423,9 +740,9 @@
         <v>186.56384000000008</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B25">
         <v>4.0999999999999996</v>
@@ -437,9 +754,9 @@
         <v>186.40384000000009</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>40.100000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="B26">
         <v>4.5999999999999996</v>
@@ -451,12 +768,12 @@
         <v>186.31384000000122</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B27">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C27">
         <v>0.11</v>
@@ -465,12 +782,12 @@
         <v>184.57384000000121</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B28">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C28">
         <v>0.11</v>
@@ -479,9 +796,9 @@
         <v>186.10592000000005</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B29">
         <v>1.1000000000000001</v>
@@ -493,12 +810,12 @@
         <v>186.37384000000122</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B30">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C30">
         <v>0.11</v>
@@ -507,12 +824,12 @@
         <v>186.4238400000001</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B31">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C31">
         <v>0.11</v>
@@ -521,12 +838,12 @@
         <v>186.40384000000009</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B32">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C32">
         <v>0.11</v>
@@ -535,12 +852,12 @@
         <v>186.33322666666751</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B33">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C33">
         <v>0.11</v>
@@ -549,12 +866,12 @@
         <v>186.25384000000122</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B34">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C34">
         <v>0.11</v>
@@ -563,9 +880,9 @@
         <v>186.05184000000008</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B35">
         <v>4.0999999999999996</v>
@@ -577,9 +894,9 @@
         <v>185.98656000000025</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B36">
         <v>4.5999999999999996</v>
@@ -591,9 +908,9 @@
         <v>185.93322666666751</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>50.100000000000001</v>
+        <v>50.1</v>
       </c>
       <c r="B37">
         <v>5.0999999999999996</v>
@@ -605,12 +922,12 @@
         <v>190.67887058823561</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B38">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C38">
         <v>0.11</v>
@@ -619,12 +936,12 @@
         <v>184.3638400000001</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B39">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C39">
         <v>0.11</v>
@@ -633,9 +950,9 @@
         <v>185.62384000000009</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B40">
         <v>1.1000000000000001</v>
@@ -647,12 +964,12 @@
         <v>185.76792000000003</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B41">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C41">
         <v>0.11</v>
@@ -661,12 +978,12 @@
         <v>185.81792000000038</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B42">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C42">
         <v>0.11</v>
@@ -675,12 +992,12 @@
         <v>185.82292000000061</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B43">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C43">
         <v>0.11</v>
@@ -689,12 +1006,12 @@
         <v>185.8029200000006</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B44">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C44">
         <v>0.11</v>
@@ -703,12 +1020,12 @@
         <v>185.76792000000003</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B45">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C45">
         <v>0.11</v>
@@ -717,9 +1034,9 @@
         <v>185.63292000000061</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B46">
         <v>4.0999999999999996</v>
@@ -731,9 +1048,9 @@
         <v>185.47989333333368</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B47">
         <v>4.5999999999999996</v>
@@ -745,9 +1062,9 @@
         <v>185.4238400000001</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>60.100000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="B48">
         <v>5.0999999999999996</v>
@@ -759,12 +1076,12 @@
         <v>185.22384000000008</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>70.099999999999994</v>
       </c>
       <c r="B49">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C49">
         <v>0.11</v>
@@ -773,12 +1090,12 @@
         <v>184.37568000000201</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>70.099999999999994</v>
       </c>
       <c r="B50">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C50">
         <v>0.11</v>
@@ -787,7 +1104,7 @@
         <v>184.68656000000027</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>70.099999999999994</v>
       </c>
@@ -801,12 +1118,12 @@
         <v>184.84656000000027</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>70.099999999999994</v>
       </c>
       <c r="B52">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C52">
         <v>0.11</v>
@@ -815,12 +1132,12 @@
         <v>184.91384000000122</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>70.099999999999994</v>
       </c>
       <c r="B53">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C53">
         <v>0.11</v>
@@ -829,12 +1146,12 @@
         <v>184.96384000000009</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>70.099999999999994</v>
       </c>
       <c r="B54">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C54">
         <v>0.11</v>
@@ -843,12 +1160,12 @@
         <v>184.95384000000121</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>70.099999999999994</v>
       </c>
       <c r="B55">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C55">
         <v>0.11</v>
@@ -857,12 +1174,12 @@
         <v>184.9238400000001</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>70.099999999999994</v>
       </c>
       <c r="B56">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C56">
         <v>0.11</v>
@@ -871,7 +1188,7 @@
         <v>184.88384000000011</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>70.099999999999994</v>
       </c>
@@ -885,7 +1202,7 @@
         <v>184.84656000000027</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>70.099999999999994</v>
       </c>
@@ -899,12 +1216,12 @@
         <v>184.80656000000027</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>80.099999999999994</v>
       </c>
       <c r="B59">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C59">
         <v>0.11</v>
@@ -913,12 +1230,12 @@
         <v>183.55568000000198</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>80.099999999999994</v>
       </c>
       <c r="B60">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C60">
         <v>0.11</v>
@@ -927,7 +1244,7 @@
         <v>184.415680000002</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>80.099999999999994</v>
       </c>
@@ -941,12 +1258,12 @@
         <v>184.58656000000028</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>80.099999999999994</v>
       </c>
       <c r="B62">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C62">
         <v>0.11</v>
@@ -955,12 +1272,12 @@
         <v>184.6429200000006</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>80.099999999999994</v>
       </c>
       <c r="B63">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C63">
         <v>0.11</v>
@@ -969,12 +1286,12 @@
         <v>184.68292000000059</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>80.099999999999994</v>
       </c>
       <c r="B64">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C64">
         <v>0.11</v>
@@ -983,12 +1300,12 @@
         <v>184.69989333333368</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>80.099999999999994</v>
       </c>
       <c r="B65">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C65">
         <v>0.11</v>
@@ -997,12 +1314,12 @@
         <v>184.68792000000005</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>80.099999999999994</v>
       </c>
       <c r="B66">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C66">
         <v>0.11</v>
@@ -1011,7 +1328,7 @@
         <v>184.67792000000037</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>80.099999999999994</v>
       </c>
@@ -1025,7 +1342,7 @@
         <v>184.66292000000058</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>80.099999999999994</v>
       </c>
@@ -1039,12 +1356,12 @@
         <v>184.63989333333367</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B69">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C69">
         <v>0.11</v>
@@ -1053,12 +1370,12 @@
         <v>161.39083999999954</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B70">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C70">
         <v>0.11</v>
@@ -1067,9 +1384,9 @@
         <v>183.72656000000026</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B71">
         <v>1.1000000000000001</v>
@@ -1081,12 +1398,12 @@
         <v>183.73322666666752</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B72">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C72">
         <v>0.11</v>
@@ -1095,12 +1412,12 @@
         <v>183.79322666666752</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B73">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C73">
         <v>0.11</v>
@@ -1109,12 +1426,12 @@
         <v>183.84656000000027</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B74">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C74">
         <v>0.11</v>
@@ -1123,12 +1440,12 @@
         <v>183.87989333333368</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B75">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C75">
         <v>0.11</v>
@@ -1137,12 +1454,12 @@
         <v>183.89384000000121</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B76">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C76">
         <v>0.11</v>
@@ -1151,9 +1468,9 @@
         <v>183.89384000000121</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B77">
         <v>4.0999999999999996</v>
@@ -1165,9 +1482,9 @@
         <v>183.83989333333369</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>90.099999999999994</v>
+        <v>90.1</v>
       </c>
       <c r="B78">
         <v>4.5999999999999996</v>
@@ -1179,12 +1496,12 @@
         <v>183.82656000000026</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B79">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C79">
         <v>0.11</v>
@@ -1193,12 +1510,12 @@
         <v>183.37989333333368</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B80">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C80">
         <v>0.11</v>
@@ -1207,9 +1524,9 @@
         <v>183.49792000000036</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B81">
         <v>1.1000000000000001</v>
@@ -1221,12 +1538,12 @@
         <v>183.55792000000037</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B82">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C82">
         <v>0.11</v>
@@ -1235,12 +1552,12 @@
         <v>183.6129200000006</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B83">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C83">
         <v>0.11</v>
@@ -1249,12 +1566,12 @@
         <v>183.63792000000038</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B84">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C84">
         <v>0.11</v>
@@ -1263,12 +1580,12 @@
         <v>183.66292000000058</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B85">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="C85">
         <v>0.11</v>
@@ -1277,12 +1594,12 @@
         <v>183.66292000000058</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>100.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="B86">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="C86">
         <v>0.11</v>
@@ -1291,12 +1608,12 @@
         <v>183.66073600000067</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>110.09999999999999</v>
+        <v>110.1</v>
       </c>
       <c r="B87">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C87">
         <v>0.11</v>
@@ -1305,12 +1622,12 @@
         <v>183.18384000000009</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>110.09999999999999</v>
+        <v>110.1</v>
       </c>
       <c r="B88">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C88">
         <v>0.11</v>
@@ -1319,9 +1636,9 @@
         <v>183.3338400000012</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>110.09999999999999</v>
+        <v>110.1</v>
       </c>
       <c r="B89">
         <v>1.1000000000000001</v>
@@ -1333,12 +1650,12 @@
         <v>183.39989333333369</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>110.09999999999999</v>
+        <v>110.1</v>
       </c>
       <c r="B90">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="C90">
         <v>0.11</v>
@@ -1347,12 +1664,12 @@
         <v>183.47989333333368</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>110.09999999999999</v>
+        <v>110.1</v>
       </c>
       <c r="B91">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="C91">
         <v>0.11</v>
@@ -1361,12 +1678,12 @@
         <v>183.50292000000059</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>110.09999999999999</v>
+        <v>110.1</v>
       </c>
       <c r="B92">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="C92">
         <v>0.11</v>
@@ -1375,12 +1692,12 @@
         <v>183.51792000000037</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>120.09999999999999</v>
+        <v>120.1</v>
       </c>
       <c r="B93">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C93">
         <v>0.11</v>
@@ -1389,12 +1706,12 @@
         <v>166.50103333333337</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>120.09999999999999</v>
+        <v>120.1</v>
       </c>
       <c r="B94">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C94">
         <v>0.11</v>
@@ -1404,21 +1721,30 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>